--- a/va_facility_data_2025-02-20/York VA Clinic - Facility Data.xlsx"; filename*=UTF-8''York%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/York VA Clinic - Facility Data.xlsx"; filename*=UTF-8''York%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raa5bddee50b64488b6ebd81049b5c062"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e54a03a87bc4042adff28ff1db735ba"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f58411b466e4ad79f89377ff96721f7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2edd6f704e6b4958880d21b507cc65db"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f81c3c24e3b4d33bdb4844908993e87"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfa1a24986f294d9b83ea435752936d6d"/>
   </x:sheets>
 </x:workbook>
 </file>
